--- a/DOC's/ШаблонXLS.xlsx
+++ b/DOC's/ШаблонXLS.xlsx
@@ -109,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,130 +478,145 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A3:I3"/>
   </mergeCells>
